--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Plxnb2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.9912071756307</v>
+        <v>14.26313166666667</v>
       </c>
       <c r="H2">
-        <v>13.9912071756307</v>
+        <v>42.789395</v>
       </c>
       <c r="I2">
-        <v>0.5614236509827715</v>
+        <v>0.5507743869941781</v>
       </c>
       <c r="J2">
-        <v>0.5614236509827715</v>
+        <v>0.550774386994178</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.8462765882418</v>
+        <v>13.10053366666667</v>
       </c>
       <c r="N2">
-        <v>12.8462765882418</v>
+        <v>39.301601</v>
       </c>
       <c r="O2">
-        <v>0.06553885745863927</v>
+        <v>0.0658796861383586</v>
       </c>
       <c r="P2">
-        <v>0.06553885745863927</v>
+        <v>0.06587968613835858</v>
       </c>
       <c r="Q2">
-        <v>179.7349171815453</v>
+        <v>186.8546365912661</v>
       </c>
       <c r="R2">
-        <v>179.7349171815453</v>
+        <v>1681.691729321395</v>
       </c>
       <c r="S2">
-        <v>0.0367950646356687</v>
+        <v>0.03628484374822331</v>
       </c>
       <c r="T2">
-        <v>0.0367950646356687</v>
+        <v>0.03628484374822329</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.9912071756307</v>
+        <v>14.26313166666667</v>
       </c>
       <c r="H3">
-        <v>13.9912071756307</v>
+        <v>42.789395</v>
       </c>
       <c r="I3">
-        <v>0.5614236509827715</v>
+        <v>0.5507743869941781</v>
       </c>
       <c r="J3">
-        <v>0.5614236509827715</v>
+        <v>0.550774386994178</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>41.0870894334888</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N3">
-        <v>41.0870894334888</v>
+        <v>123.520313</v>
       </c>
       <c r="O3">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="P3">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="Q3">
-        <v>574.8579805076088</v>
+        <v>587.2621626089596</v>
       </c>
       <c r="R3">
-        <v>574.8579805076088</v>
+        <v>5285.359463480636</v>
       </c>
       <c r="S3">
-        <v>0.1176840698557334</v>
+        <v>0.1140389995037769</v>
       </c>
       <c r="T3">
-        <v>0.1176840698557334</v>
+        <v>0.1140389995037769</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.9912071756307</v>
+        <v>14.26313166666667</v>
       </c>
       <c r="H4">
-        <v>13.9912071756307</v>
+        <v>42.789395</v>
       </c>
       <c r="I4">
-        <v>0.5614236509827715</v>
+        <v>0.5507743869941781</v>
       </c>
       <c r="J4">
-        <v>0.5614236509827715</v>
+        <v>0.550774386994178</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.5190318067127</v>
+        <v>63.73145666666667</v>
       </c>
       <c r="N4">
-        <v>63.5190318067127</v>
+        <v>191.19437</v>
       </c>
       <c r="O4">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896037</v>
       </c>
       <c r="P4">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896036</v>
       </c>
       <c r="Q4">
-        <v>888.7079336031934</v>
+        <v>909.0101577451278</v>
       </c>
       <c r="R4">
-        <v>888.7079336031934</v>
+        <v>8181.091419706149</v>
       </c>
       <c r="S4">
-        <v>0.1819349649580422</v>
+        <v>0.1765184538154055</v>
       </c>
       <c r="T4">
-        <v>0.1819349649580422</v>
+        <v>0.1765184538154055</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.9912071756307</v>
+        <v>14.26313166666667</v>
       </c>
       <c r="H5">
-        <v>13.9912071756307</v>
+        <v>42.789395</v>
       </c>
       <c r="I5">
-        <v>0.5614236509827715</v>
+        <v>0.5507743869941781</v>
       </c>
       <c r="J5">
-        <v>0.5614236509827715</v>
+        <v>0.550774386994178</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.33787363553991</v>
+        <v>66.36787400000001</v>
       </c>
       <c r="N5">
-        <v>65.33787363553991</v>
+        <v>199.103622</v>
       </c>
       <c r="O5">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169783</v>
       </c>
       <c r="P5">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169782</v>
       </c>
       <c r="Q5">
-        <v>914.1557264500179</v>
+        <v>946.6137252987435</v>
       </c>
       <c r="R5">
-        <v>914.1557264500179</v>
+        <v>8519.523527688691</v>
       </c>
       <c r="S5">
-        <v>0.1871445992200829</v>
+        <v>0.1838205984019664</v>
       </c>
       <c r="T5">
-        <v>0.1871445992200829</v>
+        <v>0.1838205984019663</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.9912071756307</v>
+        <v>14.26313166666667</v>
       </c>
       <c r="H6">
-        <v>13.9912071756307</v>
+        <v>42.789395</v>
       </c>
       <c r="I6">
-        <v>0.5614236509827715</v>
+        <v>0.5507743869941781</v>
       </c>
       <c r="J6">
-        <v>0.5614236509827715</v>
+        <v>0.550774386994178</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.2198069288072</v>
+        <v>14.48213333333333</v>
       </c>
       <c r="N6">
-        <v>13.2198069288072</v>
+        <v>43.4464</v>
       </c>
       <c r="O6">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976351</v>
       </c>
       <c r="P6">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976349</v>
       </c>
       <c r="Q6">
-        <v>184.9610575627798</v>
+        <v>206.5605745475555</v>
       </c>
       <c r="R6">
-        <v>184.9610575627798</v>
+        <v>1859.045170928</v>
       </c>
       <c r="S6">
-        <v>0.03786495231324426</v>
+        <v>0.04011149152480605</v>
       </c>
       <c r="T6">
-        <v>0.03786495231324426</v>
+        <v>0.04011149152480604</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.81095375263508</v>
+        <v>6.814554333333334</v>
       </c>
       <c r="H7">
-        <v>6.81095375263508</v>
+        <v>20.443663</v>
       </c>
       <c r="I7">
-        <v>0.2733024016068737</v>
+        <v>0.2631457153516791</v>
       </c>
       <c r="J7">
-        <v>0.2733024016068737</v>
+        <v>0.2631457153516791</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.8462765882418</v>
+        <v>13.10053366666667</v>
       </c>
       <c r="N7">
-        <v>12.8462765882418</v>
+        <v>39.301601</v>
       </c>
       <c r="O7">
-        <v>0.06553885745863927</v>
+        <v>0.0658796861383586</v>
       </c>
       <c r="P7">
-        <v>0.06553885745863927</v>
+        <v>0.06587968613835858</v>
       </c>
       <c r="Q7">
-        <v>87.49539573607366</v>
+        <v>89.27429846716255</v>
       </c>
       <c r="R7">
-        <v>87.49539573607366</v>
+        <v>803.468686204463</v>
       </c>
       <c r="S7">
-        <v>0.01791192714201668</v>
+        <v>0.01733595713602247</v>
       </c>
       <c r="T7">
-        <v>0.01791192714201668</v>
+        <v>0.01733595713602247</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.81095375263508</v>
+        <v>6.814554333333334</v>
       </c>
       <c r="H8">
-        <v>6.81095375263508</v>
+        <v>20.443663</v>
       </c>
       <c r="I8">
-        <v>0.2733024016068737</v>
+        <v>0.2631457153516791</v>
       </c>
       <c r="J8">
-        <v>0.2733024016068737</v>
+        <v>0.2631457153516791</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.0870894334888</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N8">
-        <v>41.0870894334888</v>
+        <v>123.520313</v>
       </c>
       <c r="O8">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="P8">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="Q8">
-        <v>279.8422659618737</v>
+        <v>280.5786280696133</v>
       </c>
       <c r="R8">
-        <v>279.8422659618737</v>
+        <v>2525.20765262652</v>
       </c>
       <c r="S8">
-        <v>0.05728889202679856</v>
+        <v>0.05448487586030094</v>
       </c>
       <c r="T8">
-        <v>0.05728889202679856</v>
+        <v>0.05448487586030094</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.81095375263508</v>
+        <v>6.814554333333334</v>
       </c>
       <c r="H9">
-        <v>6.81095375263508</v>
+        <v>20.443663</v>
       </c>
       <c r="I9">
-        <v>0.2733024016068737</v>
+        <v>0.2631457153516791</v>
       </c>
       <c r="J9">
-        <v>0.2733024016068737</v>
+        <v>0.2631457153516791</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.5190318067127</v>
+        <v>63.73145666666667</v>
       </c>
       <c r="N9">
-        <v>63.5190318067127</v>
+        <v>191.19437</v>
       </c>
       <c r="O9">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896037</v>
       </c>
       <c r="P9">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896036</v>
       </c>
       <c r="Q9">
-        <v>432.6251880476768</v>
+        <v>434.3014741974789</v>
       </c>
       <c r="R9">
-        <v>432.6251880476768</v>
+        <v>3908.71326777731</v>
       </c>
       <c r="S9">
-        <v>0.08856638435565518</v>
+        <v>0.08433593845117965</v>
       </c>
       <c r="T9">
-        <v>0.08856638435565518</v>
+        <v>0.08433593845117963</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.81095375263508</v>
+        <v>6.814554333333334</v>
       </c>
       <c r="H10">
-        <v>6.81095375263508</v>
+        <v>20.443663</v>
       </c>
       <c r="I10">
-        <v>0.2733024016068737</v>
+        <v>0.2631457153516791</v>
       </c>
       <c r="J10">
-        <v>0.2733024016068737</v>
+        <v>0.2631457153516791</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.33787363553991</v>
+        <v>66.36787400000001</v>
       </c>
       <c r="N10">
-        <v>65.33787363553991</v>
+        <v>199.103622</v>
       </c>
       <c r="O10">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169783</v>
       </c>
       <c r="P10">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169782</v>
       </c>
       <c r="Q10">
-        <v>445.0132356271772</v>
+        <v>452.2674833608208</v>
       </c>
       <c r="R10">
-        <v>445.0132356271772</v>
+        <v>4070.407350247387</v>
       </c>
       <c r="S10">
-        <v>0.09110244701139972</v>
+        <v>0.08782471372142883</v>
       </c>
       <c r="T10">
-        <v>0.09110244701139972</v>
+        <v>0.08782471372142882</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.81095375263508</v>
+        <v>6.814554333333334</v>
       </c>
       <c r="H11">
-        <v>6.81095375263508</v>
+        <v>20.443663</v>
       </c>
       <c r="I11">
-        <v>0.2733024016068737</v>
+        <v>0.2631457153516791</v>
       </c>
       <c r="J11">
-        <v>0.2733024016068737</v>
+        <v>0.2631457153516791</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.2198069288072</v>
+        <v>14.48213333333333</v>
       </c>
       <c r="N11">
-        <v>13.2198069288072</v>
+        <v>43.4464</v>
       </c>
       <c r="O11">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976351</v>
       </c>
       <c r="P11">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976349</v>
       </c>
       <c r="Q11">
-        <v>90.03949361087064</v>
+        <v>98.68928446257777</v>
       </c>
       <c r="R11">
-        <v>90.03949361087064</v>
+        <v>888.2035601632</v>
       </c>
       <c r="S11">
-        <v>0.01843275107100355</v>
+        <v>0.01916423018274718</v>
       </c>
       <c r="T11">
-        <v>0.01843275107100355</v>
+        <v>0.01916423018274717</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.414639733206301</v>
+        <v>0.4282683333333333</v>
       </c>
       <c r="H12">
-        <v>0.414639733206301</v>
+        <v>1.284805</v>
       </c>
       <c r="I12">
-        <v>0.01663820354720107</v>
+        <v>0.01653768851562531</v>
       </c>
       <c r="J12">
-        <v>0.01663820354720107</v>
+        <v>0.0165376885156253</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.8462765882418</v>
+        <v>13.10053366666667</v>
       </c>
       <c r="N12">
-        <v>12.8462765882418</v>
+        <v>39.301601</v>
       </c>
       <c r="O12">
-        <v>0.06553885745863927</v>
+        <v>0.0658796861383586</v>
       </c>
       <c r="P12">
-        <v>0.06553885745863927</v>
+        <v>0.06587968613835858</v>
       </c>
       <c r="Q12">
-        <v>5.32657669724293</v>
+        <v>5.610543719200555</v>
       </c>
       <c r="R12">
-        <v>5.32657669724293</v>
+        <v>50.494893472805</v>
       </c>
       <c r="S12">
-        <v>0.001090448850647837</v>
+        <v>0.001089497728863333</v>
       </c>
       <c r="T12">
-        <v>0.001090448850647837</v>
+        <v>0.001089497728863332</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.414639733206301</v>
+        <v>0.4282683333333333</v>
       </c>
       <c r="H13">
-        <v>0.414639733206301</v>
+        <v>1.284805</v>
       </c>
       <c r="I13">
-        <v>0.01663820354720107</v>
+        <v>0.01653768851562531</v>
       </c>
       <c r="J13">
-        <v>0.01663820354720107</v>
+        <v>0.0165376885156253</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.0870894334888</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N13">
-        <v>41.0870894334888</v>
+        <v>123.520313</v>
       </c>
       <c r="O13">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="P13">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="Q13">
-        <v>17.03633980092522</v>
+        <v>17.63327952710722</v>
       </c>
       <c r="R13">
-        <v>17.03633980092522</v>
+        <v>158.699515743965</v>
       </c>
       <c r="S13">
-        <v>0.003487654118409789</v>
+        <v>0.003424163317977505</v>
       </c>
       <c r="T13">
-        <v>0.003487654118409789</v>
+        <v>0.003424163317977504</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.414639733206301</v>
+        <v>0.4282683333333333</v>
       </c>
       <c r="H14">
-        <v>0.414639733206301</v>
+        <v>1.284805</v>
       </c>
       <c r="I14">
-        <v>0.01663820354720107</v>
+        <v>0.01653768851562531</v>
       </c>
       <c r="J14">
-        <v>0.01663820354720107</v>
+        <v>0.0165376885156253</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>63.5190318067127</v>
+        <v>63.73145666666667</v>
       </c>
       <c r="N14">
-        <v>63.5190318067127</v>
+        <v>191.19437</v>
       </c>
       <c r="O14">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896037</v>
       </c>
       <c r="P14">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896036</v>
       </c>
       <c r="Q14">
-        <v>26.3375144018579</v>
+        <v>27.29416472753889</v>
       </c>
       <c r="R14">
-        <v>26.3375144018579</v>
+        <v>245.64748254785</v>
       </c>
       <c r="S14">
-        <v>0.005391776734068678</v>
+        <v>0.005300186928427057</v>
       </c>
       <c r="T14">
-        <v>0.005391776734068678</v>
+        <v>0.005300186928427055</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.414639733206301</v>
+        <v>0.4282683333333333</v>
       </c>
       <c r="H15">
-        <v>0.414639733206301</v>
+        <v>1.284805</v>
       </c>
       <c r="I15">
-        <v>0.01663820354720107</v>
+        <v>0.01653768851562531</v>
       </c>
       <c r="J15">
-        <v>0.01663820354720107</v>
+        <v>0.0165376885156253</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.33787363553991</v>
+        <v>66.36787400000001</v>
       </c>
       <c r="N15">
-        <v>65.33787363553991</v>
+        <v>199.103622</v>
       </c>
       <c r="O15">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169783</v>
       </c>
       <c r="P15">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169782</v>
       </c>
       <c r="Q15">
-        <v>27.09167849250727</v>
+        <v>28.42325878485667</v>
       </c>
       <c r="R15">
-        <v>27.09167849250727</v>
+        <v>255.80932906371</v>
       </c>
       <c r="S15">
-        <v>0.005546168083821353</v>
+        <v>0.005519442935097314</v>
       </c>
       <c r="T15">
-        <v>0.005546168083821353</v>
+        <v>0.005519442935097312</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.414639733206301</v>
+        <v>0.4282683333333333</v>
       </c>
       <c r="H16">
-        <v>0.414639733206301</v>
+        <v>1.284805</v>
       </c>
       <c r="I16">
-        <v>0.01663820354720107</v>
+        <v>0.01653768851562531</v>
       </c>
       <c r="J16">
-        <v>0.01663820354720107</v>
+        <v>0.0165376885156253</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.2198069288072</v>
+        <v>14.48213333333333</v>
       </c>
       <c r="N16">
-        <v>13.2198069288072</v>
+        <v>43.4464</v>
       </c>
       <c r="O16">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976351</v>
       </c>
       <c r="P16">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976349</v>
       </c>
       <c r="Q16">
-        <v>5.481457217999426</v>
+        <v>6.202239105777776</v>
       </c>
       <c r="R16">
-        <v>5.481457217999426</v>
+        <v>55.820151952</v>
       </c>
       <c r="S16">
-        <v>0.001122155760253416</v>
+        <v>0.001204397605260099</v>
       </c>
       <c r="T16">
-        <v>0.001122155760253416</v>
+        <v>0.001204397605260098</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>3.70414299870167</v>
+        <v>0.39009</v>
       </c>
       <c r="H17">
-        <v>3.70414299870167</v>
+        <v>1.17027</v>
       </c>
       <c r="I17">
-        <v>0.1486357438631537</v>
+        <v>0.01506342265104886</v>
       </c>
       <c r="J17">
-        <v>0.1486357438631537</v>
+        <v>0.01506342265104886</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.8462765882418</v>
+        <v>13.10053366666667</v>
       </c>
       <c r="N17">
-        <v>12.8462765882418</v>
+        <v>39.301601</v>
       </c>
       <c r="O17">
-        <v>0.06553885745863927</v>
+        <v>0.0658796861383586</v>
       </c>
       <c r="P17">
-        <v>0.06553885745863927</v>
+        <v>0.06587968613835858</v>
       </c>
       <c r="Q17">
-        <v>47.58444548372103</v>
+        <v>5.110387178029999</v>
       </c>
       <c r="R17">
-        <v>47.58444548372103</v>
+        <v>45.99348460226999</v>
       </c>
       <c r="S17">
-        <v>0.009741416830306047</v>
+        <v>0.0009923735564205405</v>
       </c>
       <c r="T17">
-        <v>0.009741416830306047</v>
+        <v>0.00099237355642054</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>3.70414299870167</v>
+        <v>0.39009</v>
       </c>
       <c r="H18">
-        <v>3.70414299870167</v>
+        <v>1.17027</v>
       </c>
       <c r="I18">
-        <v>0.1486357438631537</v>
+        <v>0.01506342265104886</v>
       </c>
       <c r="J18">
-        <v>0.1486357438631537</v>
+        <v>0.01506342265104886</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>41.0870894334888</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N18">
-        <v>41.0870894334888</v>
+        <v>123.520313</v>
       </c>
       <c r="O18">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="P18">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="Q18">
-        <v>152.1924546620869</v>
+        <v>16.06134629939</v>
       </c>
       <c r="R18">
-        <v>152.1924546620869</v>
+        <v>144.55211669451</v>
       </c>
       <c r="S18">
-        <v>0.03115661271702831</v>
+        <v>0.003118913458563389</v>
       </c>
       <c r="T18">
-        <v>0.03115661271702831</v>
+        <v>0.003118913458563388</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>3.70414299870167</v>
+        <v>0.39009</v>
       </c>
       <c r="H19">
-        <v>3.70414299870167</v>
+        <v>1.17027</v>
       </c>
       <c r="I19">
-        <v>0.1486357438631537</v>
+        <v>0.01506342265104886</v>
       </c>
       <c r="J19">
-        <v>0.1486357438631537</v>
+        <v>0.01506342265104886</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>63.5190318067127</v>
+        <v>63.73145666666667</v>
       </c>
       <c r="N19">
-        <v>63.5190318067127</v>
+        <v>191.19437</v>
       </c>
       <c r="O19">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896037</v>
       </c>
       <c r="P19">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896036</v>
       </c>
       <c r="Q19">
-        <v>235.2835769511435</v>
+        <v>24.8610039311</v>
       </c>
       <c r="R19">
-        <v>235.2835769511435</v>
+        <v>223.7490353799</v>
       </c>
       <c r="S19">
-        <v>0.04816690355655368</v>
+        <v>0.004827697399006333</v>
       </c>
       <c r="T19">
-        <v>0.04816690355655368</v>
+        <v>0.004827697399006332</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>3.70414299870167</v>
+        <v>0.39009</v>
       </c>
       <c r="H20">
-        <v>3.70414299870167</v>
+        <v>1.17027</v>
       </c>
       <c r="I20">
-        <v>0.1486357438631537</v>
+        <v>0.01506342265104886</v>
       </c>
       <c r="J20">
-        <v>0.1486357438631537</v>
+        <v>0.01506342265104886</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>65.33787363553991</v>
+        <v>66.36787400000001</v>
       </c>
       <c r="N20">
-        <v>65.33787363553991</v>
+        <v>199.103622</v>
       </c>
       <c r="O20">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169783</v>
       </c>
       <c r="P20">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169782</v>
       </c>
       <c r="Q20">
-        <v>242.0208271771396</v>
+        <v>25.88944396866</v>
       </c>
       <c r="R20">
-        <v>242.0208271771396</v>
+        <v>233.00499571794</v>
       </c>
       <c r="S20">
-        <v>0.04954614339163706</v>
+        <v>0.00502740764836402</v>
       </c>
       <c r="T20">
-        <v>0.04954614339163706</v>
+        <v>0.005027407648364018</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.39009</v>
+      </c>
+      <c r="H21">
+        <v>1.17027</v>
+      </c>
+      <c r="I21">
+        <v>0.01506342265104886</v>
+      </c>
+      <c r="J21">
+        <v>0.01506342265104886</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.48213333333333</v>
+      </c>
+      <c r="N21">
+        <v>43.4464</v>
+      </c>
+      <c r="O21">
+        <v>0.07282744526976351</v>
+      </c>
+      <c r="P21">
+        <v>0.07282744526976349</v>
+      </c>
+      <c r="Q21">
+        <v>5.649335391999999</v>
+      </c>
+      <c r="R21">
+        <v>50.84401852799999</v>
+      </c>
+      <c r="S21">
+        <v>0.001097030588694577</v>
+      </c>
+      <c r="T21">
+        <v>0.001097030588694576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.000460666666666</v>
+      </c>
+      <c r="H22">
+        <v>12.001382</v>
+      </c>
+      <c r="I22">
+        <v>0.1544787864874687</v>
+      </c>
+      <c r="J22">
+        <v>0.1544787864874687</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.10053366666667</v>
+      </c>
+      <c r="N22">
+        <v>39.301601</v>
+      </c>
+      <c r="O22">
+        <v>0.0658796861383586</v>
+      </c>
+      <c r="P22">
+        <v>0.06587968613835858</v>
+      </c>
+      <c r="Q22">
+        <v>52.40816964584243</v>
+      </c>
+      <c r="R22">
+        <v>471.6735268125819</v>
+      </c>
+      <c r="S22">
+        <v>0.01017701396882895</v>
+      </c>
+      <c r="T22">
+        <v>0.01017701396882895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.000460666666666</v>
+      </c>
+      <c r="H23">
+        <v>12.001382</v>
+      </c>
+      <c r="I23">
+        <v>0.1544787864874687</v>
+      </c>
+      <c r="J23">
+        <v>0.1544787864874687</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>41.17343766666667</v>
+      </c>
+      <c r="N23">
+        <v>123.520313</v>
+      </c>
+      <c r="O23">
+        <v>0.2070521109852959</v>
+      </c>
+      <c r="P23">
+        <v>0.2070521109852959</v>
+      </c>
+      <c r="Q23">
+        <v>164.7127178969518</v>
+      </c>
+      <c r="R23">
+        <v>1482.414461072566</v>
+      </c>
+      <c r="S23">
+        <v>0.03198515884467721</v>
+      </c>
+      <c r="T23">
+        <v>0.0319851588446772</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.000460666666666</v>
+      </c>
+      <c r="H24">
+        <v>12.001382</v>
+      </c>
+      <c r="I24">
+        <v>0.1544787864874687</v>
+      </c>
+      <c r="J24">
+        <v>0.1544787864874687</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>63.73145666666667</v>
+      </c>
+      <c r="N24">
+        <v>191.19437</v>
+      </c>
+      <c r="O24">
+        <v>0.3204913989896037</v>
+      </c>
+      <c r="P24">
+        <v>0.3204913989896036</v>
+      </c>
+      <c r="Q24">
+        <v>254.9551856243711</v>
+      </c>
+      <c r="R24">
+        <v>2294.59667061934</v>
+      </c>
+      <c r="S24">
+        <v>0.04950912239558514</v>
+      </c>
+      <c r="T24">
+        <v>0.04950912239558513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>3.70414299870167</v>
-      </c>
-      <c r="H21">
-        <v>3.70414299870167</v>
-      </c>
-      <c r="I21">
-        <v>0.1486357438631537</v>
-      </c>
-      <c r="J21">
-        <v>0.1486357438631537</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>13.2198069288072</v>
-      </c>
-      <c r="N21">
-        <v>13.2198069288072</v>
-      </c>
-      <c r="O21">
-        <v>0.06744452651212984</v>
-      </c>
-      <c r="P21">
-        <v>0.06744452651212984</v>
-      </c>
-      <c r="Q21">
-        <v>48.96805527952902</v>
-      </c>
-      <c r="R21">
-        <v>48.96805527952902</v>
-      </c>
-      <c r="S21">
-        <v>0.01002466736762861</v>
-      </c>
-      <c r="T21">
-        <v>0.01002466736762861</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.000460666666666</v>
+      </c>
+      <c r="H25">
+        <v>12.001382</v>
+      </c>
+      <c r="I25">
+        <v>0.1544787864874687</v>
+      </c>
+      <c r="J25">
+        <v>0.1544787864874687</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>66.36787400000001</v>
+      </c>
+      <c r="N25">
+        <v>199.103622</v>
+      </c>
+      <c r="O25">
+        <v>0.3337493586169783</v>
+      </c>
+      <c r="P25">
+        <v>0.3337493586169782</v>
+      </c>
+      <c r="Q25">
+        <v>265.5020694672893</v>
+      </c>
+      <c r="R25">
+        <v>2389.518625205604</v>
+      </c>
+      <c r="S25">
+        <v>0.05155719591012183</v>
+      </c>
+      <c r="T25">
+        <v>0.05155719591012182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.000460666666666</v>
+      </c>
+      <c r="H26">
+        <v>12.001382</v>
+      </c>
+      <c r="I26">
+        <v>0.1544787864874687</v>
+      </c>
+      <c r="J26">
+        <v>0.1544787864874687</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>14.48213333333333</v>
+      </c>
+      <c r="N26">
+        <v>43.4464</v>
+      </c>
+      <c r="O26">
+        <v>0.07282744526976351</v>
+      </c>
+      <c r="P26">
+        <v>0.07282744526976349</v>
+      </c>
+      <c r="Q26">
+        <v>57.93520476942221</v>
+      </c>
+      <c r="R26">
+        <v>521.4168429248</v>
+      </c>
+      <c r="S26">
+        <v>0.01125029536825561</v>
+      </c>
+      <c r="T26">
+        <v>0.01125029536825561</v>
       </c>
     </row>
   </sheetData>
